--- a/story/Main Story and Others 主线剧情等/guide 导航文字/l0-0/3_battle_ui.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/l0-0/3_battle_ui.xlsx
@@ -36,7 +36,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] Remember, your body is still located in the field of battle. If you’ve forgotten how to return there, allow me to show you how.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] Remember, your body is still located in the field of battle. If you've forgotten how to return there, allow me to show you how.
 </t>
   </si>
   <si>
